--- a/model_templates/ark.DatasetAnnotationTemplate.xlsx
+++ b/model_templates/ark.DatasetAnnotationTemplate.xlsx
@@ -99,7 +99,7 @@
     </comment>
     <comment authorId="0" ref="Q1">
       <text>
-        <t xml:space="preserve">NIH policy requires large-scale human genomics studies to be registered in dbGap. This is a Dataset-specific attribute indicating the unique identifier (i.e., accession) of the corresponding study that is registered in dbGap.</t>
+        <t xml:space="preserve">phs003417.v2.p1</t>
       </text>
     </comment>
     <comment authorId="0" ref="R1">
